--- a/doc/DCUSP计算.xlsx
+++ b/doc/DCUSP计算.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver/Documents/Arduino/DCUPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliver/Documents/Arduino/DCUPS/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6D9C29-570A-6F4A-A804-3ACF6852FFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EBBCE4-5206-C449-B9A8-A6069D3A825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="4060" windowWidth="27860" windowHeight="16820" xr2:uid="{A0187767-C77A-2E4C-BD9B-7D38391915EC}"/>
+    <workbookView xWindow="4760" yWindow="3920" windowWidth="27860" windowHeight="16820" xr2:uid="{A0187767-C77A-2E4C-BD9B-7D38391915EC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,7 +439,7 @@
   <dimension ref="B4:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E16:E17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -568,6 +568,13 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>E12/F14</f>
+        <v>620.60606060606062</v>
+      </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
